--- a/1999/crime-trends-1999.xlsx
+++ b/1999/crime-trends-1999.xlsx
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Although we do not advocate adding two reporting systems in order to obtain a statewide total crime count for Virginia, we are providing the above crime counts in the two systems. These are the eight crimes contained in both systems; however, the summary system counts only the highest crime in an incident and the IBR system counts all offenses in an incident to a maximum of ten. For the offenses against a person in the IBR system, victim counts are recorded here instead of offense counts to be comparable to the data in the summary system.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +103,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -263,9 +260,10 @@
       </c>
     </row>
     <row r="11">
-      <c t="s" s="1" r="A11">
-        <v>13</v>
-      </c>
+      <c s="1" r="A11"/>
+      <c s="1" r="B11"/>
+      <c s="1" r="C11"/>
+      <c s="1" r="D11"/>
     </row>
     <row r="12">
       <c s="1" r="A12"/>
@@ -283,9 +281,6 @@
       <c s="1" r="A16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>